--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA587131-809E-48DA-969B-56B4C1E0BF14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B70E93-CCCC-4E1B-81BD-B90C9E639212}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3945" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2190" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>PLAYER_BULLET_SPEED</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_BULLET_RELOAD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>how many frames to wait to fire again</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1045,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1119,21 +1131,24 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1141,21 +1156,21 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1163,10 +1178,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1174,18 +1189,18 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1196,7 +1211,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1207,10 +1222,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1218,10 +1233,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1229,10 +1244,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1240,7 +1255,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1251,10 +1266,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1262,10 +1277,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1273,12 +1288,23 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B70E93-CCCC-4E1B-81BD-B90C9E639212}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9556D5-1827-4CB4-A13F-8A0F09B145C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="2190" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A7" sqref="A7:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9556D5-1827-4CB4-A13F-8A0F09B145C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D86E70-FB82-40CE-B769-52C758F0E00E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2190" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="1020" windowWidth="12420" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>PLAYER_BULLET_SPEED</t>
   </si>
@@ -31,9 +31,6 @@
     <t>This is bullet speed</t>
   </si>
   <si>
-    <t>PLAYER_BULLET_DAMAGE</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>PLAYER_DASH_PAUSE_FRAME</t>
-  </si>
-  <si>
-    <t>PLAYER_HP</t>
   </si>
   <si>
     <t>PLAYER_POSITION_X</t>
@@ -1057,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1084,126 +1078,126 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1211,10 +1205,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1222,10 +1216,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1233,7 +1227,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1244,7 +1238,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1255,7 +1249,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1266,46 +1260,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
         <v>21</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D86E70-FB82-40CE-B769-52C758F0E00E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6824A7-B3C2-4F97-BB68-5CB43F32CAE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1020" windowWidth="12420" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>PLAYER_BULLET_SPEED</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>how many frames to wait to fire again</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_DASH_COOLTIME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1161,18 +1169,18 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1183,7 +1191,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1194,10 +1202,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1205,10 +1213,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1216,10 +1224,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1227,7 +1235,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1238,10 +1246,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1249,10 +1257,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1260,12 +1268,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6824A7-B3C2-4F97-BB68-5CB43F32CAE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CA567-A8A0-4E2C-8B2D-CF6C2DCD18CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>PLAYER_BULLET_SPEED</t>
   </si>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>PLAYER_DASH_COOLTIME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_MAX_ULTI_GAUGE</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1059,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,6 +1296,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junsoo C\Desktop\kraftonClient\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67CA567-A8A0-4E2C-8B2D-CF6C2DCD18CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B518F7C-8C8B-4FAE-B6AB-D273FE549D15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="1860" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Junsoo C\Desktop\kraftonClient\Engine\data\datasheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B518F7C-8C8B-4FAE-B6AB-D273FE549D15}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94AE09-B5D0-4A9B-A469-987EA2BDC847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1860" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1224,7 +1224,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D94AE09-B5D0-4A9B-A469-987EA2BDC847}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC920283-EA1B-4726-BFB0-196AB4DB11CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC920283-EA1B-4726-BFB0-196AB4DB11CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4D9A5-0075-4C9D-B288-2EE98CF97DC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player_parameter" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>

--- a/Engine/data/datasheet/player_parameter.xlsx
+++ b/Engine/data/datasheet/player_parameter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\js_choi\Desktop\mainproject\Engine\Engine\data\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F4D9A5-0075-4C9D-B288-2EE98CF97DC0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BEAB35-9E73-4836-8AC4-3D7F3BCB06C9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
